--- a/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T09:28:27+00:00</t>
+    <t>2026-01-09T14:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -654,8 +654,7 @@
   <si>
     <t>zoneIntervention (OffreOperationnelle) : Périmètre géographique dans lequel habitent les personnes pouvant être prises en charge pour la prestation décrite.  
 Cela inclus notamment les divisions territoriales dans lesquelles les professionnels se déplacent.  
-RG_EXP_009 : Chaque instance de la zone d’intervention DOIT être composée par des instances de DivisionTerritoriale de type Commune.  
-(code 3 - Commune du JDV-J223-TypeDivisionTerritoriale-ROR)</t>
+RG_EXP_009 : Chaque instance de la zone d’intervention DOIT être composée par des instances de DivisionTerritoriale de type Commune (code 3 - Commune du JDV-J223-TypeDivisionTerritoriale-ROR).</t>
   </si>
   <si>
     <t>Extension créée dans le cadre du ROR qui correspond au périmètre géographique dans lequel habitent les personnes pouvant être prises en charge pour la prestation décrite. 

--- a/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-healthcareservice.xlsx
+++ b/sg/448-DivisionTerritoriale/ig/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T14:11:44+00:00</t>
+    <t>2026-01-09T15:04:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
